--- a/doc/calculate.xlsx
+++ b/doc/calculate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangxingqi/CUEB/数学建模/2017年试题/2017最终赛题/C/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangxingqi/IdeaProjects/ExcelUtil/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="3420" windowWidth="26920" windowHeight="14480"/>
+    <workbookView xWindow="660" yWindow="1240" windowWidth="25600" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -969,7 +969,7 @@
     <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
-    <numFmt numFmtId="182" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1043,8 +1043,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,21 +1109,23 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1458,7 +1466,7 @@
   <dimension ref="A1:M750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1536,11 +1544,11 @@
         <v>296</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I33" si="0">(((B2/60)/60)/24)+DATE(1970,1,1)</f>
+        <f>(((B2/60)/60)/24)+DATE(1970,1,1)</f>
         <v>42482.677083333328</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J33" si="1">(((C2/60)/60)/24)+DATE(1970,1,1)</f>
+        <f t="shared" ref="J2:J33" si="0">(((C2/60)/60)/24)+DATE(1970,1,1)</f>
         <v>42482.751388888893</v>
       </c>
       <c r="L2" s="10">
@@ -1573,11 +1581,11 @@
         <v>128</v>
       </c>
       <c r="I3" s="7">
+        <f>(((B3/60)/60)/24)+DATE(1970,1,1)</f>
+        <v>42482.784722222219</v>
+      </c>
+      <c r="J3" s="7">
         <f t="shared" si="0"/>
-        <v>42482.784722222219</v>
-      </c>
-      <c r="J3" s="7">
-        <f t="shared" si="1"/>
         <v>42482.851388888885</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -1613,11 +1621,11 @@
         <v>128</v>
       </c>
       <c r="I4" s="2">
+        <f t="shared" ref="I2:I33" si="1">(((B4/60)/60)/24)+DATE(1970,1,1)</f>
+        <v>42483.28125</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>42483.28125</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="1"/>
         <v>42483.350694444445</v>
       </c>
       <c r="L4" s="10">
@@ -1650,11 +1658,11 @@
         <v>128</v>
       </c>
       <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.388888888891</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>42483.388888888891</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="1"/>
         <v>42483.461805555555</v>
       </c>
       <c r="L5" s="10">
@@ -1687,11 +1695,11 @@
         <v>128</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.506944444445</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>42483.506944444445</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="1"/>
         <v>42483.611111111109</v>
       </c>
       <c r="L6" s="10">
@@ -1724,11 +1732,11 @@
         <v>129</v>
       </c>
       <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>42482.490277777775</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>42482.490277777775</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="1"/>
         <v>42482.602777777778</v>
       </c>
       <c r="L7" s="10">
@@ -1761,11 +1769,11 @@
         <v>129</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>42482.652777777781</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>42482.652777777781</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="1"/>
         <v>42482.71875</v>
       </c>
       <c r="L8" s="10">
@@ -1798,11 +1806,11 @@
         <v>129</v>
       </c>
       <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>42482.774305555555</v>
+      </c>
+      <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>42482.774305555555</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="1"/>
         <v>42482.840277777781</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -1838,11 +1846,11 @@
         <v>129</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>42482.930555555555</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>42482.930555555555</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="1"/>
         <v>42483.010416666672</v>
       </c>
       <c r="L10" s="10">
@@ -1875,11 +1883,11 @@
         <v>129</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.045138888891</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>42483.045138888891</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="1"/>
         <v>42483.128472222219</v>
       </c>
       <c r="L11" s="10">
@@ -1912,11 +1920,11 @@
         <v>129</v>
       </c>
       <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.288194444445</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>42483.288194444445</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="1"/>
         <v>42483.423611111109</v>
       </c>
       <c r="L12" s="10">
@@ -1949,11 +1957,11 @@
         <v>129</v>
       </c>
       <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.465277777781</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>42483.465277777781</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="1"/>
         <v>42483.590277777781</v>
       </c>
       <c r="L13" s="10">
@@ -1986,7 +1994,7 @@
         <v>130</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42482.583333333328</v>
       </c>
       <c r="J14" s="2">
@@ -2023,7 +2031,7 @@
         <v>130</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42483.180555555555</v>
       </c>
       <c r="J15" s="2">
@@ -2060,11 +2068,11 @@
         <v>130</v>
       </c>
       <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.3125</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>42483.3125</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="1"/>
         <v>42483.402777777781</v>
       </c>
       <c r="L16" s="10">
@@ -2097,11 +2105,11 @@
         <v>130</v>
       </c>
       <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.454861111109</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>42483.454861111109</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="1"/>
         <v>42483.569444444445</v>
       </c>
       <c r="L17" s="10">
@@ -2134,11 +2142,11 @@
         <v>130</v>
       </c>
       <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.604166666672</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>42483.604166666672</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="1"/>
         <v>42483.708333333328</v>
       </c>
       <c r="L18" s="10">
@@ -2171,11 +2179,11 @@
         <v>131</v>
       </c>
       <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>42482.881944444445</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>42482.881944444445</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="1"/>
         <v>42482.954861111109</v>
       </c>
       <c r="L19" s="10">
@@ -2208,11 +2216,11 @@
         <v>131</v>
       </c>
       <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>42482.996527777781</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>42482.996527777781</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="1"/>
         <v>42483.069444444445</v>
       </c>
       <c r="L20" s="10">
@@ -2245,11 +2253,11 @@
         <v>131</v>
       </c>
       <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.305555555555</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>42483.305555555555</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="1"/>
         <v>42483.434027777781</v>
       </c>
       <c r="L21" s="10">
@@ -2282,11 +2290,11 @@
         <v>131</v>
       </c>
       <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.472222222219</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>42483.472222222219</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="1"/>
         <v>42483.590277777781</v>
       </c>
       <c r="L22" s="10">
@@ -2319,11 +2327,11 @@
         <v>132</v>
       </c>
       <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.319444444445</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>42483.319444444445</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="1"/>
         <v>42483.395833333328</v>
       </c>
       <c r="L23" s="10">
@@ -2356,11 +2364,11 @@
         <v>132</v>
       </c>
       <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.434027777781</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>42483.434027777781</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="1"/>
         <v>42483.503472222219</v>
       </c>
       <c r="L24" s="10">
@@ -2393,11 +2401,11 @@
         <v>132</v>
       </c>
       <c r="I25" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.5625</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>42483.5625</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="1"/>
         <v>42483.638888888891</v>
       </c>
       <c r="L25" s="10">
@@ -2430,11 +2438,11 @@
         <v>133</v>
       </c>
       <c r="I26" s="2">
+        <f t="shared" si="1"/>
+        <v>42482.548611111109</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>42482.548611111109</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="1"/>
         <v>42482.609027777777</v>
       </c>
       <c r="L26" s="10">
@@ -2467,11 +2475,11 @@
         <v>133</v>
       </c>
       <c r="I27" s="2">
+        <f t="shared" si="1"/>
+        <v>42482.631944444445</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>42482.631944444445</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="1"/>
         <v>42482.701388888891</v>
       </c>
       <c r="L27" s="10">
@@ -2504,11 +2512,11 @@
         <v>133</v>
       </c>
       <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>42482.736111111109</v>
+      </c>
+      <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>42482.736111111109</v>
-      </c>
-      <c r="J28" s="7">
-        <f t="shared" si="1"/>
         <v>42482.802083333328</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -2544,11 +2552,11 @@
         <v>133</v>
       </c>
       <c r="I29" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.215277777781</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>42483.215277777781</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="1"/>
         <v>42483.298611111109</v>
       </c>
       <c r="L29" s="10">
@@ -2581,11 +2589,11 @@
         <v>133</v>
       </c>
       <c r="I30" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.340277777781</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>42483.340277777781</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="1"/>
         <v>42483.416666666672</v>
       </c>
       <c r="L30" s="10">
@@ -2618,11 +2626,11 @@
         <v>133</v>
       </c>
       <c r="I31" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.465277777781</v>
+      </c>
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>42483.465277777781</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="1"/>
         <v>42483.534722222219</v>
       </c>
       <c r="L31" s="10">
@@ -2655,11 +2663,11 @@
         <v>133</v>
       </c>
       <c r="I32" s="2">
+        <f t="shared" si="1"/>
+        <v>42483.576388888891</v>
+      </c>
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>42483.576388888891</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="1"/>
         <v>42483.645833333328</v>
       </c>
       <c r="L32" s="10">
@@ -2692,11 +2700,11 @@
         <v>134</v>
       </c>
       <c r="I33" s="2">
+        <f t="shared" si="1"/>
+        <v>42482.579861111109</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>42482.579861111109</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="1"/>
         <v>42482.646527777775</v>
       </c>
       <c r="L33" s="10">

--- a/doc/calculate.xlsx
+++ b/doc/calculate.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4627" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4625" uniqueCount="297">
   <si>
     <t>OVS</t>
   </si>
@@ -965,11 +965,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1072,7 +1071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1101,18 +1100,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1463,15 +1450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M750"/>
+  <dimension ref="A1:K750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
@@ -1479,11 +1466,9 @@
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>281</v>
       </c>
@@ -1514,14 +1499,8 @@
       <c r="K1" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>174774150</v>
       </c>
@@ -1551,14 +1530,8 @@
         <f t="shared" ref="J2:J33" si="0">(((C2/60)/60)/24)+DATE(1970,1,1)</f>
         <v>42482.751388888893</v>
       </c>
-      <c r="L2" s="10">
-        <v>42482.677083333328</v>
-      </c>
-      <c r="M2" s="12">
-        <v>42482.677083333328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>174774124</v>
       </c>
@@ -1591,14 +1564,8 @@
       <c r="K3" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="L3" s="11">
-        <v>42482.784722222219</v>
-      </c>
-      <c r="M3" s="13">
-        <v>42482.784722222219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>174777506</v>
       </c>
@@ -1621,21 +1588,15 @@
         <v>128</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I2:I33" si="1">(((B4/60)/60)/24)+DATE(1970,1,1)</f>
+        <f t="shared" ref="I4:I33" si="1">(((B4/60)/60)/24)+DATE(1970,1,1)</f>
         <v>42483.28125</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>42483.350694444445</v>
       </c>
-      <c r="L4" s="10">
-        <v>42483.28125</v>
-      </c>
-      <c r="M4" s="12">
-        <v>42483.28125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>174777482</v>
       </c>
@@ -1665,14 +1626,8 @@
         <f t="shared" si="0"/>
         <v>42483.461805555555</v>
       </c>
-      <c r="L5" s="10">
-        <v>42483.388888888891</v>
-      </c>
-      <c r="M5" s="12">
-        <v>42483.388888888891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>174777574</v>
       </c>
@@ -1702,14 +1657,8 @@
         <f t="shared" si="0"/>
         <v>42483.611111111109</v>
       </c>
-      <c r="L6" s="10">
-        <v>42483.506944444445</v>
-      </c>
-      <c r="M6" s="12">
-        <v>42483.506944444445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>174773996</v>
       </c>
@@ -1739,14 +1688,8 @@
         <f t="shared" si="0"/>
         <v>42482.602777777778</v>
       </c>
-      <c r="L7" s="10">
-        <v>42482.490277777775</v>
-      </c>
-      <c r="M7" s="12">
-        <v>42482.490277777775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>174773893</v>
       </c>
@@ -1776,14 +1719,8 @@
         <f t="shared" si="0"/>
         <v>42482.71875</v>
       </c>
-      <c r="L8" s="10">
-        <v>42482.652777777781</v>
-      </c>
-      <c r="M8" s="12">
-        <v>42482.652777777781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>174773887</v>
       </c>
@@ -1816,14 +1753,8 @@
       <c r="K9" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="L9" s="11">
-        <v>42482.774305555555</v>
-      </c>
-      <c r="M9" s="13">
-        <v>42482.774305555555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>174774230</v>
       </c>
@@ -1853,14 +1784,8 @@
         <f t="shared" si="0"/>
         <v>42483.010416666672</v>
       </c>
-      <c r="L10" s="10">
-        <v>42482.930555555555</v>
-      </c>
-      <c r="M10" s="12">
-        <v>42482.930555555555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>174777664</v>
       </c>
@@ -1890,14 +1815,8 @@
         <f t="shared" si="0"/>
         <v>42483.128472222219</v>
       </c>
-      <c r="L11" s="10">
-        <v>42483.045138888891</v>
-      </c>
-      <c r="M11" s="12">
-        <v>42483.045138888891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>174777680</v>
       </c>
@@ -1927,14 +1846,8 @@
         <f t="shared" si="0"/>
         <v>42483.423611111109</v>
       </c>
-      <c r="L12" s="10">
-        <v>42483.288194444445</v>
-      </c>
-      <c r="M12" s="12">
-        <v>42483.288194444445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>174777518</v>
       </c>
@@ -1964,14 +1877,8 @@
         <f t="shared" si="0"/>
         <v>42483.590277777781</v>
       </c>
-      <c r="L13" s="10">
-        <v>42483.465277777781</v>
-      </c>
-      <c r="M13" s="12">
-        <v>42483.465277777781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>174773596</v>
       </c>
@@ -2001,14 +1908,8 @@
         <f>(((C14/60)/60)/24)+DATE(1970,1,1)</f>
         <v>42482.671527777777</v>
       </c>
-      <c r="L14" s="10">
-        <v>42482.583333333328</v>
-      </c>
-      <c r="M14" s="12">
-        <v>42482.583333333328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>174777926</v>
       </c>
@@ -2038,14 +1939,8 @@
         <f>(((C15/60)/60)/24)+DATE(1970,1,1)</f>
         <v>42483.274305555555</v>
       </c>
-      <c r="L15" s="10">
-        <v>42483.180555555555</v>
-      </c>
-      <c r="M15" s="12">
-        <v>42483.180555555555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>174778026</v>
       </c>
@@ -2075,14 +1970,8 @@
         <f t="shared" si="0"/>
         <v>42483.402777777781</v>
       </c>
-      <c r="L16" s="10">
-        <v>42483.3125</v>
-      </c>
-      <c r="M16" s="12">
-        <v>42483.3125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>174777498</v>
       </c>
@@ -2112,14 +2001,8 @@
         <f t="shared" si="0"/>
         <v>42483.569444444445</v>
       </c>
-      <c r="L17" s="10">
-        <v>42483.454861111109</v>
-      </c>
-      <c r="M17" s="12">
-        <v>42483.454861111109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>174777802</v>
       </c>
@@ -2149,14 +2032,8 @@
         <f t="shared" si="0"/>
         <v>42483.708333333328</v>
       </c>
-      <c r="L18" s="10">
-        <v>42483.604166666672</v>
-      </c>
-      <c r="M18" s="12">
-        <v>42483.604166666672</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>174773332</v>
       </c>
@@ -2186,14 +2063,8 @@
         <f t="shared" si="0"/>
         <v>42482.954861111109</v>
       </c>
-      <c r="L19" s="10">
-        <v>42482.881944444445</v>
-      </c>
-      <c r="M19" s="12">
-        <v>42482.881944444445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>174774330</v>
       </c>
@@ -2223,14 +2094,8 @@
         <f t="shared" si="0"/>
         <v>42483.069444444445</v>
       </c>
-      <c r="L20" s="10">
-        <v>42482.996527777781</v>
-      </c>
-      <c r="M20" s="12">
-        <v>42482.996527777781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>174778364</v>
       </c>
@@ -2260,14 +2125,8 @@
         <f t="shared" si="0"/>
         <v>42483.434027777781</v>
       </c>
-      <c r="L21" s="10">
-        <v>42483.305555555555</v>
-      </c>
-      <c r="M21" s="12">
-        <v>42483.305555555555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>174778068</v>
       </c>
@@ -2297,14 +2156,8 @@
         <f t="shared" si="0"/>
         <v>42483.590277777781</v>
       </c>
-      <c r="L22" s="10">
-        <v>42483.472222222219</v>
-      </c>
-      <c r="M22" s="12">
-        <v>42483.472222222219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>174778064</v>
       </c>
@@ -2334,14 +2187,8 @@
         <f t="shared" si="0"/>
         <v>42483.395833333328</v>
       </c>
-      <c r="L23" s="10">
-        <v>42483.319444444445</v>
-      </c>
-      <c r="M23" s="12">
-        <v>42483.319444444445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>174778492</v>
       </c>
@@ -2371,14 +2218,8 @@
         <f t="shared" si="0"/>
         <v>42483.503472222219</v>
       </c>
-      <c r="L24" s="10">
-        <v>42483.434027777781</v>
-      </c>
-      <c r="M24" s="12">
-        <v>42483.434027777781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>174778550</v>
       </c>
@@ -2408,14 +2249,8 @@
         <f t="shared" si="0"/>
         <v>42483.638888888891</v>
       </c>
-      <c r="L25" s="10">
-        <v>42483.5625</v>
-      </c>
-      <c r="M25" s="12">
-        <v>42483.5625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>174773328</v>
       </c>
@@ -2445,14 +2280,8 @@
         <f t="shared" si="0"/>
         <v>42482.609027777777</v>
       </c>
-      <c r="L26" s="10">
-        <v>42482.548611111109</v>
-      </c>
-      <c r="M26" s="12">
-        <v>42482.548611111109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>174773739</v>
       </c>
@@ -2482,14 +2311,8 @@
         <f t="shared" si="0"/>
         <v>42482.701388888891</v>
       </c>
-      <c r="L27" s="10">
-        <v>42482.631944444445</v>
-      </c>
-      <c r="M27" s="12">
-        <v>42482.631944444445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>174773751</v>
       </c>
@@ -2522,14 +2345,8 @@
       <c r="K28" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="L28" s="11">
-        <v>42482.736111111109</v>
-      </c>
-      <c r="M28" s="13">
-        <v>42482.736111111109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>174778566</v>
       </c>
@@ -2559,14 +2376,8 @@
         <f t="shared" si="0"/>
         <v>42483.298611111109</v>
       </c>
-      <c r="L29" s="10">
-        <v>42483.215277777781</v>
-      </c>
-      <c r="M29" s="12">
-        <v>42483.215277777781</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>174777392</v>
       </c>
@@ -2596,14 +2407,8 @@
         <f t="shared" si="0"/>
         <v>42483.416666666672</v>
       </c>
-      <c r="L30" s="10">
-        <v>42483.340277777781</v>
-      </c>
-      <c r="M30" s="12">
-        <v>42483.340277777781</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>174778342</v>
       </c>
@@ -2633,14 +2438,8 @@
         <f t="shared" si="0"/>
         <v>42483.534722222219</v>
       </c>
-      <c r="L31" s="10">
-        <v>42483.465277777781</v>
-      </c>
-      <c r="M31" s="12">
-        <v>42483.465277777781</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>174778466</v>
       </c>
@@ -2670,14 +2469,8 @@
         <f t="shared" si="0"/>
         <v>42483.645833333328</v>
       </c>
-      <c r="L32" s="10">
-        <v>42483.576388888891</v>
-      </c>
-      <c r="M32" s="12">
-        <v>42483.576388888891</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>174774232</v>
       </c>
@@ -2707,14 +2500,8 @@
         <f t="shared" si="0"/>
         <v>42482.646527777775</v>
       </c>
-      <c r="L33" s="10">
-        <v>42482.579861111109</v>
-      </c>
-      <c r="M33" s="12">
-        <v>42482.579861111109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>174773957</v>
       </c>
@@ -2747,14 +2534,8 @@
       <c r="K34" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="L34" s="11">
-        <v>42482.725694444445</v>
-      </c>
-      <c r="M34" s="13">
-        <v>42482.725694444445</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>174773460</v>
       </c>
@@ -2787,14 +2568,8 @@
       <c r="K35" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="L35" s="11">
-        <v>42482.868055555555</v>
-      </c>
-      <c r="M35" s="13">
-        <v>42482.868055555555</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>174777548</v>
       </c>
@@ -2824,14 +2599,8 @@
         <f t="shared" si="3"/>
         <v>42483.180555555555</v>
       </c>
-      <c r="L36" s="10">
-        <v>42483.135416666672</v>
-      </c>
-      <c r="M36" s="12">
-        <v>42483.135416666672</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>174778170</v>
       </c>
@@ -2861,14 +2630,8 @@
         <f t="shared" si="3"/>
         <v>42483.3125</v>
       </c>
-      <c r="L37" s="10">
-        <v>42483.260416666672</v>
-      </c>
-      <c r="M37" s="12">
-        <v>42483.260416666672</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>174778166</v>
       </c>
@@ -2898,14 +2661,8 @@
         <f t="shared" si="3"/>
         <v>42483.392361111109</v>
       </c>
-      <c r="L38" s="10">
-        <v>42483.347222222219</v>
-      </c>
-      <c r="M38" s="12">
-        <v>42483.347222222219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>174778580</v>
       </c>
@@ -2935,14 +2692,8 @@
         <f t="shared" si="3"/>
         <v>42483.642361111109</v>
       </c>
-      <c r="L39" s="10">
-        <v>42483.493055555555</v>
-      </c>
-      <c r="M39" s="12">
-        <v>42483.493055555555</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>174774494</v>
       </c>
@@ -2972,14 +2723,8 @@
         <f t="shared" si="3"/>
         <v>42482.646527777775</v>
       </c>
-      <c r="L40" s="10">
-        <v>42482.490972222222</v>
-      </c>
-      <c r="M40" s="12">
-        <v>42482.490972222222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>174774298</v>
       </c>
@@ -3012,14 +2757,8 @@
       <c r="K41" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="L41" s="11">
-        <v>42482.684027777781</v>
-      </c>
-      <c r="M41" s="13">
-        <v>42482.684027777781</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>174774204</v>
       </c>
@@ -3052,14 +2791,8 @@
       <c r="K42" t="s">
         <v>295</v>
       </c>
-      <c r="L42" s="10">
-        <v>42482.878472222219</v>
-      </c>
-      <c r="M42" s="12">
-        <v>42482.878472222219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>174773919</v>
       </c>
@@ -3089,14 +2822,8 @@
         <f t="shared" si="3"/>
         <v>42483.076388888891</v>
       </c>
-      <c r="L43" s="10">
-        <v>42482.996527777781</v>
-      </c>
-      <c r="M43" s="12">
-        <v>42482.996527777781</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>174777510</v>
       </c>
@@ -3126,14 +2853,8 @@
         <f t="shared" si="3"/>
         <v>42483.173611111109</v>
       </c>
-      <c r="L44" s="10">
-        <v>42483.125</v>
-      </c>
-      <c r="M44" s="12">
-        <v>42483.125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>174777674</v>
       </c>
@@ -3163,14 +2884,8 @@
         <f t="shared" si="3"/>
         <v>42483.25</v>
       </c>
-      <c r="L45" s="10">
-        <v>42483.208333333328</v>
-      </c>
-      <c r="M45" s="12">
-        <v>42483.208333333328</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>174777464</v>
       </c>
@@ -3200,14 +2915,8 @@
         <f t="shared" si="3"/>
         <v>42483.347222222219</v>
       </c>
-      <c r="L46" s="10">
-        <v>42483.298611111109</v>
-      </c>
-      <c r="M46" s="12">
-        <v>42483.298611111109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>174777480</v>
       </c>
@@ -3237,14 +2946,8 @@
         <f t="shared" si="3"/>
         <v>42483.427083333328</v>
       </c>
-      <c r="L47" s="10">
-        <v>42483.381944444445</v>
-      </c>
-      <c r="M47" s="12">
-        <v>42483.381944444445</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>174777458</v>
       </c>
@@ -3274,14 +2977,8 @@
         <f t="shared" si="3"/>
         <v>42483.586805555555</v>
       </c>
-      <c r="L48" s="10">
-        <v>42483.472222222219</v>
-      </c>
-      <c r="M48" s="12">
-        <v>42483.472222222219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>174773388</v>
       </c>
@@ -3311,14 +3008,8 @@
         <f t="shared" si="3"/>
         <v>42482.58194444445</v>
       </c>
-      <c r="L49" s="10">
-        <v>42482.470833333333</v>
-      </c>
-      <c r="M49" s="12">
-        <v>42482.470833333333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>174773380</v>
       </c>
@@ -3351,14 +3042,8 @@
       <c r="K50" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="L50" s="11">
-        <v>42482.631944444445</v>
-      </c>
-      <c r="M50" s="13">
-        <v>42482.631944444445</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>174773432</v>
       </c>
@@ -3391,14 +3076,8 @@
       <c r="K51" t="s">
         <v>295</v>
       </c>
-      <c r="L51" s="11">
-        <v>42482.868055555555</v>
-      </c>
-      <c r="M51" s="13">
-        <v>42482.868055555555</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>174778458</v>
       </c>
@@ -3428,14 +3107,8 @@
         <f t="shared" si="3"/>
         <v>42483.125</v>
       </c>
-      <c r="L52" s="10">
-        <v>42483.086805555555</v>
-      </c>
-      <c r="M52" s="12">
-        <v>42483.086805555555</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>174778176</v>
       </c>
@@ -3465,14 +3138,8 @@
         <f t="shared" si="3"/>
         <v>42483.25</v>
       </c>
-      <c r="L53" s="10">
-        <v>42483.177083333328</v>
-      </c>
-      <c r="M53" s="12">
-        <v>42483.177083333328</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>174778180</v>
       </c>
@@ -3502,14 +3169,8 @@
         <f t="shared" si="3"/>
         <v>42483.364583333328</v>
       </c>
-      <c r="L54" s="10">
-        <v>42483.295138888891</v>
-      </c>
-      <c r="M54" s="12">
-        <v>42483.295138888891</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>174777656</v>
       </c>
@@ -3539,14 +3200,8 @@
         <f t="shared" si="3"/>
         <v>42483.513888888891</v>
       </c>
-      <c r="L55" s="10">
-        <v>42483.430555555555</v>
-      </c>
-      <c r="M55" s="12">
-        <v>42483.430555555555</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>174777662</v>
       </c>
@@ -3576,14 +3231,8 @@
         <f t="shared" si="3"/>
         <v>42483.638888888891</v>
       </c>
-      <c r="L56" s="10">
-        <v>42483.559027777781</v>
-      </c>
-      <c r="M56" s="12">
-        <v>42483.559027777781</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>174773508</v>
       </c>
@@ -3613,14 +3262,8 @@
         <f t="shared" si="3"/>
         <v>42482.632638888885</v>
       </c>
-      <c r="L57" s="10">
-        <v>42482.53125</v>
-      </c>
-      <c r="M57" s="12">
-        <v>42482.53125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>174773636</v>
       </c>
@@ -3653,14 +3296,8 @@
       <c r="K58" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="L58" s="11">
-        <v>42482.670138888891</v>
-      </c>
-      <c r="M58" s="13">
-        <v>42482.670138888891</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>174774076</v>
       </c>
@@ -3693,14 +3330,8 @@
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="L59" s="11">
-        <v>42482.836805555555</v>
-      </c>
-      <c r="M59" s="13">
-        <v>42482.836805555555</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>174774222</v>
       </c>
@@ -3730,14 +3361,8 @@
         <f t="shared" si="3"/>
         <v>42483.0625</v>
       </c>
-      <c r="L60" s="10">
-        <v>42482.993055555555</v>
-      </c>
-      <c r="M60" s="12">
-        <v>42482.993055555555</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>174777744</v>
       </c>
@@ -3767,14 +3392,8 @@
         <f t="shared" si="3"/>
         <v>42483.222222222219</v>
       </c>
-      <c r="L61" s="10">
-        <v>42483.15625</v>
-      </c>
-      <c r="M61" s="12">
-        <v>42483.15625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>174777868</v>
       </c>
@@ -3804,14 +3423,8 @@
         <f t="shared" si="3"/>
         <v>42483.315972222219</v>
       </c>
-      <c r="L62" s="10">
-        <v>42483.253472222219</v>
-      </c>
-      <c r="M62" s="12">
-        <v>42483.253472222219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>174777388</v>
       </c>
@@ -3841,14 +3454,8 @@
         <f t="shared" si="3"/>
         <v>42483.510416666672</v>
       </c>
-      <c r="L63" s="10">
-        <v>42483.451388888891</v>
-      </c>
-      <c r="M63" s="12">
-        <v>42483.451388888891</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>174777394</v>
       </c>
@@ -3878,14 +3485,8 @@
         <f t="shared" si="3"/>
         <v>42483.625</v>
       </c>
-      <c r="L64" s="10">
-        <v>42483.5625</v>
-      </c>
-      <c r="M64" s="12">
-        <v>42483.5625</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>174774238</v>
       </c>
@@ -3915,14 +3516,8 @@
         <f t="shared" si="3"/>
         <v>42482.552777777775</v>
       </c>
-      <c r="L65" s="10">
-        <v>42482.46875</v>
-      </c>
-      <c r="M65" s="12">
-        <v>42482.46875</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>174774386</v>
       </c>
@@ -3952,14 +3547,8 @@
         <f t="shared" si="3"/>
         <v>42482.679861111115</v>
       </c>
-      <c r="L66" s="10">
-        <v>42482.59375</v>
-      </c>
-      <c r="M66" s="12">
-        <v>42482.59375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>174774466</v>
       </c>
@@ -3989,14 +3578,8 @@
         <f t="shared" ref="J67:J130" si="5">(((C67/60)/60)/24)+DATE(1970,1,1)</f>
         <v>42482.637499999997</v>
       </c>
-      <c r="L67" s="10">
-        <v>42482.5625</v>
-      </c>
-      <c r="M67" s="12">
-        <v>42482.5625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>174774314</v>
       </c>
@@ -4029,14 +3612,8 @@
       <c r="K68" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="L68" s="11">
-        <v>42482.680555555555</v>
-      </c>
-      <c r="M68" s="13">
-        <v>42482.680555555555</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>174774048</v>
       </c>
@@ -4069,14 +3646,8 @@
       <c r="K69" t="s">
         <v>295</v>
       </c>
-      <c r="L69" s="11">
-        <v>42482.822916666672</v>
-      </c>
-      <c r="M69" s="13">
-        <v>42482.822916666672</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>174778414</v>
       </c>
@@ -4106,14 +3677,8 @@
         <f t="shared" si="5"/>
         <v>42483.190972222219</v>
       </c>
-      <c r="L70" s="10">
-        <v>42483.135416666672</v>
-      </c>
-      <c r="M70" s="12">
-        <v>42483.135416666672</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>174778222</v>
       </c>
@@ -4143,14 +3708,8 @@
         <f t="shared" si="5"/>
         <v>42483.305555555555</v>
       </c>
-      <c r="L71" s="10">
-        <v>42483.239583333328</v>
-      </c>
-      <c r="M71" s="12">
-        <v>42483.239583333328</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>174777722</v>
       </c>
@@ -4180,14 +3739,8 @@
         <f t="shared" si="5"/>
         <v>42483.402777777781</v>
       </c>
-      <c r="L72" s="10">
-        <v>42483.34375</v>
-      </c>
-      <c r="M72" s="12">
-        <v>42483.34375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>174778136</v>
       </c>
@@ -4217,14 +3770,8 @@
         <f t="shared" si="5"/>
         <v>42483.565972222219</v>
       </c>
-      <c r="L73" s="10">
-        <v>42483.489583333328</v>
-      </c>
-      <c r="M73" s="12">
-        <v>42483.489583333328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>174778132</v>
       </c>
@@ -4254,14 +3801,8 @@
         <f t="shared" si="5"/>
         <v>42483.684027777781</v>
       </c>
-      <c r="L74" s="10">
-        <v>42483.611111111109</v>
-      </c>
-      <c r="M74" s="12">
-        <v>42483.611111111109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>174774246</v>
       </c>
@@ -4291,14 +3832,8 @@
         <f t="shared" si="5"/>
         <v>42482.533333333333</v>
       </c>
-      <c r="L75" s="10">
-        <v>42482.462499999994</v>
-      </c>
-      <c r="M75" s="12">
-        <v>42482.462499999994</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>174774376</v>
       </c>
@@ -4328,14 +3863,8 @@
         <f t="shared" si="5"/>
         <v>42482.670833333337</v>
       </c>
-      <c r="L76" s="10">
-        <v>42482.600694444445</v>
-      </c>
-      <c r="M76" s="12">
-        <v>42482.600694444445</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>174773642</v>
       </c>
@@ -4365,14 +3894,8 @@
         <f t="shared" si="5"/>
         <v>42482.986111111109</v>
       </c>
-      <c r="L77" s="10">
-        <v>42482.881944444445</v>
-      </c>
-      <c r="M77" s="12">
-        <v>42482.881944444445</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>174778242</v>
       </c>
@@ -4402,14 +3925,8 @@
         <f t="shared" si="5"/>
         <v>42483.15625</v>
       </c>
-      <c r="L78" s="10">
-        <v>42483.041666666672</v>
-      </c>
-      <c r="M78" s="12">
-        <v>42483.041666666672</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>174778008</v>
       </c>
@@ -4439,14 +3956,8 @@
         <f t="shared" si="5"/>
         <v>42483.354166666672</v>
       </c>
-      <c r="L79" s="10">
-        <v>42483.284722222219</v>
-      </c>
-      <c r="M79" s="12">
-        <v>42483.284722222219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>174778312</v>
       </c>
@@ -4476,14 +3987,8 @@
         <f t="shared" si="5"/>
         <v>42483.461805555555</v>
       </c>
-      <c r="L80" s="10">
-        <v>42483.395833333328</v>
-      </c>
-      <c r="M80" s="12">
-        <v>42483.395833333328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>174778328</v>
       </c>
@@ -4513,14 +4018,8 @@
         <f t="shared" si="5"/>
         <v>42483.645833333328</v>
       </c>
-      <c r="L81" s="10">
-        <v>42483.579861111109</v>
-      </c>
-      <c r="M81" s="12">
-        <v>42483.579861111109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>174774116</v>
       </c>
@@ -4550,14 +4049,8 @@
         <f t="shared" si="5"/>
         <v>42482.593055555553</v>
       </c>
-      <c r="L82" s="10">
-        <v>42482.53125</v>
-      </c>
-      <c r="M82" s="12">
-        <v>42482.53125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>174774132</v>
       </c>
@@ -4587,14 +4080,8 @@
         <f t="shared" si="5"/>
         <v>42482.736111111109</v>
       </c>
-      <c r="L83" s="10">
-        <v>42482.670138888891</v>
-      </c>
-      <c r="M83" s="12">
-        <v>42482.670138888891</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>174774144</v>
       </c>
@@ -4627,14 +4114,8 @@
       <c r="K84" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="L84" s="11">
-        <v>42482.770833333328</v>
-      </c>
-      <c r="M84" s="13">
-        <v>42482.770833333328</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>174777448</v>
       </c>
@@ -4664,14 +4145,8 @@
         <f t="shared" si="5"/>
         <v>42483.25</v>
       </c>
-      <c r="L85" s="10">
-        <v>42483.166666666672</v>
-      </c>
-      <c r="M85" s="12">
-        <v>42483.166666666672</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>174777456</v>
       </c>
@@ -4701,14 +4176,8 @@
         <f t="shared" si="5"/>
         <v>42483.378472222219</v>
       </c>
-      <c r="L86" s="10">
-        <v>42483.291666666672</v>
-      </c>
-      <c r="M86" s="12">
-        <v>42483.291666666672</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>174777600</v>
       </c>
@@ -4738,14 +4207,8 @@
         <f t="shared" si="5"/>
         <v>42483.496527777781</v>
       </c>
-      <c r="L87" s="10">
-        <v>42483.427083333328</v>
-      </c>
-      <c r="M87" s="12">
-        <v>42483.427083333328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>174778198</v>
       </c>
@@ -4775,14 +4238,8 @@
         <f t="shared" si="5"/>
         <v>42483.597222222219</v>
       </c>
-      <c r="L88" s="10">
-        <v>42483.53125</v>
-      </c>
-      <c r="M88" s="12">
-        <v>42483.53125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>174773428</v>
       </c>
@@ -4812,14 +4269,8 @@
         <f t="shared" si="5"/>
         <v>42482.583333333328</v>
       </c>
-      <c r="L89" s="10">
-        <v>42482.473611111112</v>
-      </c>
-      <c r="M89" s="12">
-        <v>42482.473611111112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>174773733</v>
       </c>
@@ -4849,14 +4300,8 @@
         <f t="shared" si="5"/>
         <v>42482.70694444445</v>
       </c>
-      <c r="L90" s="10">
-        <v>42482.604166666672</v>
-      </c>
-      <c r="M90" s="12">
-        <v>42482.604166666672</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>174773921</v>
       </c>
@@ -4886,14 +4331,8 @@
         <f t="shared" si="5"/>
         <v>42482.556249999994</v>
       </c>
-      <c r="L91" s="10">
-        <v>42482.5</v>
-      </c>
-      <c r="M91" s="12">
-        <v>42482.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>174774356</v>
       </c>
@@ -4923,14 +4362,8 @@
         <f t="shared" si="5"/>
         <v>42482.650694444441</v>
       </c>
-      <c r="L92" s="10">
-        <v>42482.604166666672</v>
-      </c>
-      <c r="M92" s="12">
-        <v>42482.604166666672</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>174773536</v>
       </c>
@@ -4960,14 +4393,8 @@
         <f t="shared" si="5"/>
         <v>42483.003472222219</v>
       </c>
-      <c r="L93" s="10">
-        <v>42482.909722222219</v>
-      </c>
-      <c r="M93" s="12">
-        <v>42482.909722222219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>174777432</v>
       </c>
@@ -4997,14 +4424,8 @@
         <f t="shared" si="5"/>
         <v>42483.138888888891</v>
       </c>
-      <c r="L94" s="10">
-        <v>42483.045138888891</v>
-      </c>
-      <c r="M94" s="12">
-        <v>42483.045138888891</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>174777646</v>
       </c>
@@ -5034,14 +4455,8 @@
         <f t="shared" si="5"/>
         <v>42483.28125</v>
       </c>
-      <c r="L95" s="10">
-        <v>42483.208333333328</v>
-      </c>
-      <c r="M95" s="12">
-        <v>42483.208333333328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>174777644</v>
       </c>
@@ -5071,14 +4486,8 @@
         <f t="shared" si="5"/>
         <v>42483.409722222219</v>
       </c>
-      <c r="L96" s="10">
-        <v>42483.340277777781</v>
-      </c>
-      <c r="M96" s="12">
-        <v>42483.340277777781</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>174777992</v>
       </c>
@@ -5108,14 +4517,8 @@
         <f t="shared" si="5"/>
         <v>42483.555555555555</v>
       </c>
-      <c r="L97" s="10">
-        <v>42483.5</v>
-      </c>
-      <c r="M97" s="12">
-        <v>42483.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>174778446</v>
       </c>
@@ -5145,14 +4548,8 @@
         <f t="shared" si="5"/>
         <v>42483.649305555555</v>
       </c>
-      <c r="L98" s="10">
-        <v>42483.604166666672</v>
-      </c>
-      <c r="M98" s="12">
-        <v>42483.604166666672</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>174773927</v>
       </c>
@@ -5183,7 +4580,7 @@
         <v>42482.618055555555</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>174777440</v>
       </c>
@@ -5214,7 +4611,7 @@
         <v>42483.295138888891</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>174778518</v>
       </c>
@@ -5245,7 +4642,7 @@
         <v>42483.444444444445</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>174777732</v>
       </c>
@@ -5276,7 +4673,7 @@
         <v>42483.763888888891</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>174773670</v>
       </c>
@@ -5307,7 +4704,7 @@
         <v>42482.76180555555</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>174773807</v>
       </c>
@@ -5338,7 +4735,7 @@
         <v>42483.086805555555</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>174778450</v>
       </c>
@@ -5369,7 +4766,7 @@
         <v>42483.291666666672</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>174778442</v>
       </c>
@@ -5400,7 +4797,7 @@
         <v>42483.434027777781</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>174773983</v>
       </c>
@@ -5431,7 +4828,7 @@
         <v>42482.923611111109</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>174773821</v>
       </c>
@@ -5462,7 +4859,7 @@
         <v>42483.243055555555</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>174777500</v>
       </c>
@@ -5493,7 +4890,7 @@
         <v>42483.40625</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>174777490</v>
       </c>
@@ -5524,7 +4921,7 @@
         <v>42483.534722222219</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>174774456</v>
       </c>
@@ -5555,7 +4952,7 @@
         <v>42482.595833333333</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>174773400</v>
       </c>

--- a/doc/calculate.xlsx
+++ b/doc/calculate.xlsx
@@ -9,19 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1240" windowWidth="25600" windowHeight="14340"/>
+    <workbookView xWindow="1880" yWindow="2560" windowWidth="16580" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="9号机型" sheetId="2" r:id="rId2"/>
     <sheet name="到达OVS" sheetId="5" r:id="rId3"/>
     <sheet name="起飞OVS" sheetId="3" r:id="rId4"/>
-    <sheet name="到达OVS时间筛选" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'9号机型'!$G$2:$G$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">到达OVS!$E$1:$E$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">到达OVS时间筛选!$I$1:$J$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">起飞OVS!$D$1:$D$98</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4625" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4228" uniqueCount="303">
   <si>
     <t>OVS</t>
   </si>
@@ -960,15 +958,37 @@
     <t>41098</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>替换/延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1013,7 +1033,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1032,6 +1052,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1042,8 +1068,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,12 +1125,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1096,23 +1134,35 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1452,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K750"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
@@ -1531,37 +1581,37 @@
         <v>42482.751388888893</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>174774124</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>1461351000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1461356760</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <f>(((B3/60)/60)/24)+DATE(1970,1,1)</f>
         <v>42482.784722222219</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
         <v>42482.851388888885</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>291</v>
       </c>
     </row>
@@ -1720,67 +1770,67 @@
         <v>42482.71875</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>174773887</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>1461350100</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>1461355800</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <f t="shared" si="1"/>
         <v>42482.774305555555</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
         <v>42482.840277777781</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>174774230</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>1461363600</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>1461370500</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="9">
         <f t="shared" si="1"/>
         <v>42482.930555555555</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="9">
         <f t="shared" si="0"/>
         <v>42483.010416666672</v>
       </c>
@@ -1909,33 +1959,33 @@
         <v>42482.671527777777</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>174777926</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>1461385200</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>1461393300</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="9">
         <f t="shared" si="1"/>
         <v>42483.180555555555</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="9">
         <f>(((C15/60)/60)/24)+DATE(1970,1,1)</f>
         <v>42483.274305555555</v>
       </c>
@@ -2312,67 +2362,67 @@
         <v>42482.701388888891</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>174773751</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>1461346800</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>1461352500</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="E28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="5">
         <f t="shared" si="1"/>
         <v>42482.736111111109</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="5">
         <f t="shared" si="0"/>
         <v>42482.802083333328</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <v>174778566</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>1461388200</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>1461395400</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="F29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="9">
         <f t="shared" si="1"/>
         <v>42483.215277777781</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
         <v>42483.298611111109</v>
       </c>
@@ -2501,71 +2551,71 @@
         <v>42482.646527777775</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>174773957</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>1461345900</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>1461351720</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="E34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="5">
         <f t="shared" ref="I34:I66" si="2">(((B34/60)/60)/24)+DATE(1970,1,1)</f>
         <v>42482.725694444445</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="5">
         <f t="shared" ref="J34:J66" si="3">(((C34/60)/60)/24)+DATE(1970,1,1)</f>
         <v>42482.79305555555</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>174773460</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>1461358200</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>1461362700</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="D35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" s="7">
+      <c r="F35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I35" s="5">
         <f t="shared" si="2"/>
         <v>42482.868055555555</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="5">
         <f>(((C35/60)/60)/24)+DATE(1970,1,1)</f>
         <v>42482.920138888891</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="3" t="s">
         <v>294</v>
       </c>
     </row>
@@ -2724,72 +2774,72 @@
         <v>42482.646527777775</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>174774298</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>1461342300</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>1461354600</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="E41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="5">
         <f t="shared" si="2"/>
         <v>42482.684027777781</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="5">
         <f t="shared" si="3"/>
         <v>42482.826388888891</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>174774204</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>1461359100</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>1461366000</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="D42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I42" s="2">
+      <c r="F42" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I42" s="5">
         <f t="shared" si="2"/>
         <v>42482.878472222219</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="5">
         <f t="shared" si="3"/>
         <v>42482.958333333328</v>
       </c>
-      <c r="K42" t="s">
-        <v>295</v>
+      <c r="K42" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3009,67 +3059,67 @@
         <v>42482.58194444445</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>174773380</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>1461337800</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>1461348060</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="6" t="s">
+      <c r="E50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="5">
         <f t="shared" si="2"/>
         <v>42482.631944444445</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="5">
         <f t="shared" si="3"/>
         <v>42482.750694444447</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+    <row r="51" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>174773432</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>1461358200</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>1461362400</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="D51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I51" s="7">
+      <c r="F51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I51" s="5">
         <f t="shared" si="2"/>
         <v>42482.868055555555</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="5">
         <f t="shared" si="3"/>
         <v>42482.916666666672</v>
       </c>
@@ -3263,67 +3313,67 @@
         <v>42482.632638888885</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+    <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>174773636</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="3">
         <v>1461341100</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="3">
         <v>1461349920</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G58" s="6" t="s">
+      <c r="E58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="5">
         <f t="shared" si="2"/>
         <v>42482.670138888891</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="5">
         <f t="shared" si="3"/>
         <v>42482.772222222222</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+    <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>174774076</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="3">
         <v>1461355500</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="3">
         <v>1461361500</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="6" t="s">
+      <c r="D59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I59" s="7">
+      <c r="F59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I59" s="5">
         <f t="shared" si="2"/>
         <v>42482.836805555555</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="5">
         <f t="shared" si="3"/>
         <v>42482.90625</v>
       </c>
@@ -3579,67 +3629,67 @@
         <v>42482.637499999997</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+    <row r="68" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>174774314</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="3">
         <v>1461342000</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="3">
         <v>1461348600</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G68" s="6" t="s">
+      <c r="E68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="5">
         <f t="shared" si="4"/>
         <v>42482.680555555555</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="5">
         <f t="shared" si="5"/>
         <v>42482.756944444445</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K68" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+    <row r="69" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>174774048</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="3">
         <v>1461354300</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="3">
         <v>1461359700</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="6" t="s">
+      <c r="D69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I69" s="7">
+      <c r="F69" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I69" s="5">
         <f t="shared" si="4"/>
         <v>42482.822916666672</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="5">
         <f t="shared" si="5"/>
         <v>42482.885416666672</v>
       </c>
@@ -3864,33 +3914,33 @@
         <v>42482.670833333337</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="77" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
         <v>174773642</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="7">
         <v>1461359400</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="7">
         <v>1461368400</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="D77" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G77" s="1" t="s">
+      <c r="F77" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="9">
         <f t="shared" si="4"/>
         <v>42482.881944444445</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="9">
         <f t="shared" si="5"/>
         <v>42482.986111111109</v>
       </c>
@@ -4081,67 +4131,67 @@
         <v>42482.736111111109</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+    <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
         <v>174774144</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="3">
         <v>1461349800</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="3">
         <v>1461355200</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G84" s="6" t="s">
+      <c r="E84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="5">
         <f t="shared" si="4"/>
         <v>42482.770833333328</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J84" s="5">
         <f t="shared" si="5"/>
         <v>42482.833333333328</v>
       </c>
-      <c r="K84" s="5" t="s">
+      <c r="K84" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="85" spans="1:11" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
         <v>174777448</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="7">
         <v>1461384000</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="7">
         <v>1461391200</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="D85" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G85" s="1" t="s">
+      <c r="F85" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="9">
         <f t="shared" si="4"/>
         <v>42483.166666666672</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="9">
         <f t="shared" si="5"/>
         <v>42483.25</v>
       </c>
@@ -4363,33 +4413,33 @@
         <v>42482.650694444441</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="93" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
         <v>174773536</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="7">
         <v>1461361800</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="7">
         <v>1461369900</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E93" s="1" t="s">
+      <c r="D93" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G93" s="1" t="s">
+      <c r="F93" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="9">
         <f t="shared" si="4"/>
         <v>42482.909722222219</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="9">
         <f t="shared" si="5"/>
         <v>42483.003472222219</v>
       </c>
@@ -24780,6 +24830,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -27692,6 +27747,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" customWidth="1"/>
   </cols>
@@ -27754,32 +27813,32 @@
         <v>42482.751388888893</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>174774124</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>1461351000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1461356760</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>42482.784722222219</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>42482.851388888885</v>
       </c>
     </row>
@@ -27928,32 +27987,32 @@
         <v>42482.71875</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>174773887</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>1461350100</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>1461355800</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>42482.774305555555</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>42482.840277777781</v>
       </c>
     </row>
@@ -28479,32 +28538,32 @@
         <v>42482.701388888891</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>174773751</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>1461346800</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>1461352500</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="E28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="5">
         <v>42482.736111111109</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="5">
         <v>42482.802083333328</v>
       </c>
     </row>
@@ -28653,32 +28712,32 @@
         <v>42482.646527777775</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>174773957</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>1461345900</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>1461351720</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="E34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="5">
         <v>42482.725694444445</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="5">
         <v>42482.79305555555</v>
       </c>
     </row>
@@ -28856,32 +28915,32 @@
         <v>42482.646527777775</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+    <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>174774298</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>1461342300</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>1461354600</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="E41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="5">
         <v>42482.684027777781</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="5">
         <v>42482.826388888891</v>
       </c>
     </row>
@@ -29117,32 +29176,32 @@
         <v>42482.58194444445</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+    <row r="50" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>174773380</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>1461337800</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>1461348060</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="6" t="s">
+      <c r="E50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="5">
         <v>42482.631944444445</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="5">
         <v>42482.750694444447</v>
       </c>
     </row>
@@ -29349,32 +29408,32 @@
         <v>42482.632638888885</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+    <row r="58" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>174773636</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="3">
         <v>1461341100</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="3">
         <v>1461349920</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G58" s="6" t="s">
+      <c r="E58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="5">
         <v>42482.670138888891</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="5">
         <v>42482.772222222222</v>
       </c>
     </row>
@@ -29639,32 +29698,32 @@
         <v>42482.637499999997</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>174774314</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="3">
         <v>1461342000</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="3">
         <v>1461348600</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G68" s="6" t="s">
+      <c r="E68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="5">
         <v>42482.680555555555</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="5">
         <v>42482.756944444445</v>
       </c>
     </row>
@@ -30103,32 +30162,32 @@
         <v>42482.736111111109</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+    <row r="84" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
         <v>174774144</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="3">
         <v>1461349800</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="3">
         <v>1461355200</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G84" s="6" t="s">
+      <c r="E84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="5">
         <v>42482.770833333328</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J84" s="5">
         <v>42482.833333333328</v>
       </c>
     </row>
@@ -31553,32 +31612,32 @@
         <v>42482.79305555555</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>174773460</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>1461358200</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>1461362700</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="D35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="5">
         <v>42482.868055555555</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="5">
         <v>42482.920138888891</v>
       </c>
     </row>
@@ -32017,32 +32076,32 @@
         <v>42482.750694444447</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+    <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>174773432</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>1461358200</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>1461362400</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="D51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="6" t="s">
+      <c r="F51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="5">
         <v>42482.868055555555</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="5">
         <v>42482.916666666672</v>
       </c>
     </row>
@@ -32249,32 +32308,32 @@
         <v>42482.772222222222</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>174774076</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="3">
         <v>1461355500</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="3">
         <v>1461361500</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="6" t="s">
+      <c r="D59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" s="6" t="s">
+      <c r="F59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="5">
         <v>42482.836805555555</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="5">
         <v>42482.90625</v>
       </c>
     </row>
@@ -32539,32 +32598,32 @@
         <v>42482.756944444445</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+    <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>174774048</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="3">
         <v>1461354300</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="3">
         <v>1461359700</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="6" t="s">
+      <c r="D69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G69" s="6" t="s">
+      <c r="F69" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="5">
         <v>42482.822916666672</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="5">
         <v>42482.885416666672</v>
       </c>
     </row>
@@ -33420,2875 +33479,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J98"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I1" t="s">
-        <v>282</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>174774150</v>
-      </c>
-      <c r="B2">
-        <v>1461341700</v>
-      </c>
-      <c r="C2">
-        <v>1461348120</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="2">
-        <v>42482.677083333328</v>
-      </c>
-      <c r="J2" s="4">
-        <v>42482.751388888893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>174774124</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1461351000</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1461356760</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="7">
-        <v>42482.784722222219</v>
-      </c>
-      <c r="J3" s="8">
-        <v>42482.851388888885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>174777506</v>
-      </c>
-      <c r="B4">
-        <v>1461393900</v>
-      </c>
-      <c r="C4">
-        <v>1461399900</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="2">
-        <v>42483.28125</v>
-      </c>
-      <c r="J4" s="2">
-        <v>42483.350694444445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>174777482</v>
-      </c>
-      <c r="B5">
-        <v>1461403200</v>
-      </c>
-      <c r="C5">
-        <v>1461409500</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" s="2">
-        <v>42483.388888888891</v>
-      </c>
-      <c r="J5" s="3">
-        <v>42483.461805555555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>174777574</v>
-      </c>
-      <c r="B6">
-        <v>1461413400</v>
-      </c>
-      <c r="C6">
-        <v>1461422400</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" s="2">
-        <v>42483.506944444445</v>
-      </c>
-      <c r="J6" s="2">
-        <v>42483.611111111109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>174773996</v>
-      </c>
-      <c r="B7">
-        <v>1461325560</v>
-      </c>
-      <c r="C7">
-        <v>1461335280</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="2">
-        <v>42482.490277777775</v>
-      </c>
-      <c r="J7" s="4">
-        <v>42482.602777777778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>174773893</v>
-      </c>
-      <c r="B8">
-        <v>1461339600</v>
-      </c>
-      <c r="C8">
-        <v>1461345300</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="2">
-        <v>42482.652777777781</v>
-      </c>
-      <c r="J8" s="4">
-        <v>42482.71875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>174773887</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1461350100</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1461355800</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="7">
-        <v>42482.774305555555</v>
-      </c>
-      <c r="J9" s="8">
-        <v>42482.840277777781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>174774230</v>
-      </c>
-      <c r="B10">
-        <v>1461363600</v>
-      </c>
-      <c r="C10">
-        <v>1461370500</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="2">
-        <v>42482.930555555555</v>
-      </c>
-      <c r="J10" s="2">
-        <v>42483.010416666672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>174777664</v>
-      </c>
-      <c r="B11">
-        <v>1461373500</v>
-      </c>
-      <c r="C11">
-        <v>1461380700</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="2">
-        <v>42483.045138888891</v>
-      </c>
-      <c r="J11" s="3">
-        <v>42483.128472222219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>174777680</v>
-      </c>
-      <c r="B12">
-        <v>1461394500</v>
-      </c>
-      <c r="C12">
-        <v>1461406200</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="2">
-        <v>42483.288194444445</v>
-      </c>
-      <c r="J12" s="2">
-        <v>42483.423611111109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>174777518</v>
-      </c>
-      <c r="B13">
-        <v>1461409800</v>
-      </c>
-      <c r="C13">
-        <v>1461420600</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" s="2">
-        <v>42483.465277777781</v>
-      </c>
-      <c r="J13" s="3">
-        <v>42483.590277777781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>174773596</v>
-      </c>
-      <c r="B14">
-        <v>1461333600</v>
-      </c>
-      <c r="C14">
-        <v>1461341220</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14" s="2">
-        <v>42482.583333333328</v>
-      </c>
-      <c r="J14" s="4">
-        <v>42482.671527777777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>174777926</v>
-      </c>
-      <c r="B15">
-        <v>1461385200</v>
-      </c>
-      <c r="C15">
-        <v>1461393300</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="2">
-        <v>42483.180555555555</v>
-      </c>
-      <c r="J15" s="2">
-        <v>42483.274305555555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>174778026</v>
-      </c>
-      <c r="B16">
-        <v>1461396600</v>
-      </c>
-      <c r="C16">
-        <v>1461404400</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="2">
-        <v>42483.3125</v>
-      </c>
-      <c r="J16" s="3">
-        <v>42483.402777777781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>174777498</v>
-      </c>
-      <c r="B17">
-        <v>1461408900</v>
-      </c>
-      <c r="C17">
-        <v>1461418800</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="2">
-        <v>42483.454861111109</v>
-      </c>
-      <c r="J17" s="2">
-        <v>42483.569444444445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>174777802</v>
-      </c>
-      <c r="B18">
-        <v>1461421800</v>
-      </c>
-      <c r="C18">
-        <v>1461430800</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="2">
-        <v>42483.604166666672</v>
-      </c>
-      <c r="J18" s="3">
-        <v>42483.708333333328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>174773332</v>
-      </c>
-      <c r="B19">
-        <v>1461359400</v>
-      </c>
-      <c r="C19">
-        <v>1461365700</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="2">
-        <v>42482.881944444445</v>
-      </c>
-      <c r="J19" s="4">
-        <v>42482.954861111109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>174774330</v>
-      </c>
-      <c r="B20">
-        <v>1461369300</v>
-      </c>
-      <c r="C20">
-        <v>1461375600</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="2">
-        <v>42482.996527777781</v>
-      </c>
-      <c r="J20" s="3">
-        <v>42483.069444444445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>174778364</v>
-      </c>
-      <c r="B21">
-        <v>1461396000</v>
-      </c>
-      <c r="C21">
-        <v>1461407100</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21" s="2">
-        <v>42483.305555555555</v>
-      </c>
-      <c r="J21" s="2">
-        <v>42483.434027777781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>174778068</v>
-      </c>
-      <c r="B22">
-        <v>1461410400</v>
-      </c>
-      <c r="C22">
-        <v>1461420600</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="2">
-        <v>42483.472222222219</v>
-      </c>
-      <c r="J22" s="3">
-        <v>42483.590277777781</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>174778064</v>
-      </c>
-      <c r="B23">
-        <v>1461397200</v>
-      </c>
-      <c r="C23">
-        <v>1461403800</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" s="2">
-        <v>42483.319444444445</v>
-      </c>
-      <c r="J23" s="2">
-        <v>42483.395833333328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>174778492</v>
-      </c>
-      <c r="B24">
-        <v>1461407100</v>
-      </c>
-      <c r="C24">
-        <v>1461413100</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" s="2">
-        <v>42483.434027777781</v>
-      </c>
-      <c r="J24" s="3">
-        <v>42483.503472222219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>174778550</v>
-      </c>
-      <c r="B25">
-        <v>1461418200</v>
-      </c>
-      <c r="C25">
-        <v>1461424800</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" s="2">
-        <v>42483.5625</v>
-      </c>
-      <c r="J25" s="2">
-        <v>42483.638888888891</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>174773328</v>
-      </c>
-      <c r="B26">
-        <v>1461330600</v>
-      </c>
-      <c r="C26">
-        <v>1461335820</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" s="2">
-        <v>42482.548611111109</v>
-      </c>
-      <c r="J26" s="4">
-        <v>42482.609027777777</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>174773739</v>
-      </c>
-      <c r="B27">
-        <v>1461337800</v>
-      </c>
-      <c r="C27">
-        <v>1461343800</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" s="2">
-        <v>42482.631944444445</v>
-      </c>
-      <c r="J27" s="4">
-        <v>42482.701388888891</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>174773751</v>
-      </c>
-      <c r="B28">
-        <v>1461346800</v>
-      </c>
-      <c r="C28">
-        <v>1461352500</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I28" s="2">
-        <v>42482.736111111109</v>
-      </c>
-      <c r="J28" s="4">
-        <v>42482.802083333328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>174778566</v>
-      </c>
-      <c r="B29">
-        <v>1461388200</v>
-      </c>
-      <c r="C29">
-        <v>1461395400</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" s="2">
-        <v>42483.215277777781</v>
-      </c>
-      <c r="J29" s="2">
-        <v>42483.298611111109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>174777392</v>
-      </c>
-      <c r="B30">
-        <v>1461399000</v>
-      </c>
-      <c r="C30">
-        <v>1461405600</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="2">
-        <v>42483.340277777781</v>
-      </c>
-      <c r="J30" s="3">
-        <v>42483.416666666672</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>174778342</v>
-      </c>
-      <c r="B31">
-        <v>1461409800</v>
-      </c>
-      <c r="C31">
-        <v>1461415800</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31" s="2">
-        <v>42483.465277777781</v>
-      </c>
-      <c r="J31" s="2">
-        <v>42483.534722222219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>174778466</v>
-      </c>
-      <c r="B32">
-        <v>1461419400</v>
-      </c>
-      <c r="C32">
-        <v>1461425400</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I32" s="2">
-        <v>42483.576388888891</v>
-      </c>
-      <c r="J32" s="3">
-        <v>42483.645833333328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>174774232</v>
-      </c>
-      <c r="B33">
-        <v>1461333300</v>
-      </c>
-      <c r="C33">
-        <v>1461339060</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I33" s="2">
-        <v>42482.579861111109</v>
-      </c>
-      <c r="J33" s="4">
-        <v>42482.646527777775</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>174773957</v>
-      </c>
-      <c r="B34">
-        <v>1461345900</v>
-      </c>
-      <c r="C34">
-        <v>1461351720</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" s="2">
-        <v>42482.725694444445</v>
-      </c>
-      <c r="J34" s="4">
-        <v>42482.79305555555</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>174773460</v>
-      </c>
-      <c r="B35">
-        <v>1461358200</v>
-      </c>
-      <c r="C35">
-        <v>1461362700</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" s="2">
-        <v>42482.868055555555</v>
-      </c>
-      <c r="J35" s="4">
-        <v>42482.920138888891</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>174777548</v>
-      </c>
-      <c r="B36">
-        <v>1461381300</v>
-      </c>
-      <c r="C36">
-        <v>1461385200</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="2">
-        <v>42483.135416666672</v>
-      </c>
-      <c r="J36" s="3">
-        <v>42483.180555555555</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>174778170</v>
-      </c>
-      <c r="B37">
-        <v>1461392100</v>
-      </c>
-      <c r="C37">
-        <v>1461396600</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" s="2">
-        <v>42483.260416666672</v>
-      </c>
-      <c r="J37" s="2">
-        <v>42483.3125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>174778166</v>
-      </c>
-      <c r="B38">
-        <v>1461399600</v>
-      </c>
-      <c r="C38">
-        <v>1461403500</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="2">
-        <v>42483.347222222219</v>
-      </c>
-      <c r="J38" s="3">
-        <v>42483.392361111109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>174778580</v>
-      </c>
-      <c r="B39">
-        <v>1461412200</v>
-      </c>
-      <c r="C39">
-        <v>1461425100</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" s="2">
-        <v>42483.493055555555</v>
-      </c>
-      <c r="J39" s="2">
-        <v>42483.642361111109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>174774494</v>
-      </c>
-      <c r="B40">
-        <v>1461325620</v>
-      </c>
-      <c r="C40">
-        <v>1461339060</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I40" s="2">
-        <v>42482.490972222222</v>
-      </c>
-      <c r="J40" s="4">
-        <v>42482.646527777775</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>174774298</v>
-      </c>
-      <c r="B41">
-        <v>1461342300</v>
-      </c>
-      <c r="C41">
-        <v>1461354600</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I41" s="2">
-        <v>42482.684027777781</v>
-      </c>
-      <c r="J41" s="4">
-        <v>42482.826388888891</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>174774204</v>
-      </c>
-      <c r="B42">
-        <v>1461359100</v>
-      </c>
-      <c r="C42">
-        <v>1461366000</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I42" s="2">
-        <v>42482.878472222219</v>
-      </c>
-      <c r="J42" s="4">
-        <v>42482.958333333328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>174773919</v>
-      </c>
-      <c r="B43">
-        <v>1461369300</v>
-      </c>
-      <c r="C43">
-        <v>1461376200</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="2">
-        <v>42482.996527777781</v>
-      </c>
-      <c r="J43" s="3">
-        <v>42483.076388888891</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>174777510</v>
-      </c>
-      <c r="B44">
-        <v>1461380400</v>
-      </c>
-      <c r="C44">
-        <v>1461384600</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I44" s="2">
-        <v>42483.125</v>
-      </c>
-      <c r="J44" s="2">
-        <v>42483.173611111109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>174777674</v>
-      </c>
-      <c r="B45">
-        <v>1461387600</v>
-      </c>
-      <c r="C45">
-        <v>1461391200</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I45" s="2">
-        <v>42483.208333333328</v>
-      </c>
-      <c r="J45" s="3">
-        <v>42483.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>174777464</v>
-      </c>
-      <c r="B46">
-        <v>1461395400</v>
-      </c>
-      <c r="C46">
-        <v>1461399600</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I46" s="2">
-        <v>42483.298611111109</v>
-      </c>
-      <c r="J46" s="2">
-        <v>42483.347222222219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>174777480</v>
-      </c>
-      <c r="B47">
-        <v>1461402600</v>
-      </c>
-      <c r="C47">
-        <v>1461406500</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I47" s="2">
-        <v>42483.381944444445</v>
-      </c>
-      <c r="J47" s="3">
-        <v>42483.427083333328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>174777458</v>
-      </c>
-      <c r="B48">
-        <v>1461410400</v>
-      </c>
-      <c r="C48">
-        <v>1461420300</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I48" s="2">
-        <v>42483.472222222219</v>
-      </c>
-      <c r="J48" s="2">
-        <v>42483.586805555555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>174773388</v>
-      </c>
-      <c r="B49">
-        <v>1461323880</v>
-      </c>
-      <c r="C49">
-        <v>1461333480</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I49" s="2">
-        <v>42482.470833333333</v>
-      </c>
-      <c r="J49" s="4">
-        <v>42482.58194444445</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>174773380</v>
-      </c>
-      <c r="B50">
-        <v>1461337800</v>
-      </c>
-      <c r="C50">
-        <v>1461348060</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I50" s="2">
-        <v>42482.631944444445</v>
-      </c>
-      <c r="J50" s="4">
-        <v>42482.750694444447</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>174773432</v>
-      </c>
-      <c r="B51">
-        <v>1461358200</v>
-      </c>
-      <c r="C51">
-        <v>1461362400</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I51" s="2">
-        <v>42482.868055555555</v>
-      </c>
-      <c r="J51" s="4">
-        <v>42482.916666666672</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>174778458</v>
-      </c>
-      <c r="B52">
-        <v>1461377100</v>
-      </c>
-      <c r="C52">
-        <v>1461380400</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I52" s="2">
-        <v>42483.086805555555</v>
-      </c>
-      <c r="J52" s="3">
-        <v>42483.125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>174778176</v>
-      </c>
-      <c r="B53">
-        <v>1461384900</v>
-      </c>
-      <c r="C53">
-        <v>1461391200</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I53" s="2">
-        <v>42483.177083333328</v>
-      </c>
-      <c r="J53" s="2">
-        <v>42483.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>174778180</v>
-      </c>
-      <c r="B54">
-        <v>1461395100</v>
-      </c>
-      <c r="C54">
-        <v>1461401100</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I54" s="2">
-        <v>42483.295138888891</v>
-      </c>
-      <c r="J54" s="3">
-        <v>42483.364583333328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>174777656</v>
-      </c>
-      <c r="B55">
-        <v>1461406800</v>
-      </c>
-      <c r="C55">
-        <v>1461414000</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I55" s="2">
-        <v>42483.430555555555</v>
-      </c>
-      <c r="J55" s="2">
-        <v>42483.513888888891</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>174777662</v>
-      </c>
-      <c r="B56">
-        <v>1461417900</v>
-      </c>
-      <c r="C56">
-        <v>1461424800</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I56" s="2">
-        <v>42483.559027777781</v>
-      </c>
-      <c r="J56" s="3">
-        <v>42483.638888888891</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>174773508</v>
-      </c>
-      <c r="B57">
-        <v>1461329100</v>
-      </c>
-      <c r="C57">
-        <v>1461337860</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I57" s="2">
-        <v>42482.53125</v>
-      </c>
-      <c r="J57" s="4">
-        <v>42482.632638888885</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>174773636</v>
-      </c>
-      <c r="B58">
-        <v>1461341100</v>
-      </c>
-      <c r="C58">
-        <v>1461349920</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I58" s="2">
-        <v>42482.670138888891</v>
-      </c>
-      <c r="J58" s="4">
-        <v>42482.772222222222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>174774076</v>
-      </c>
-      <c r="B59">
-        <v>1461355500</v>
-      </c>
-      <c r="C59">
-        <v>1461361500</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I59" s="2">
-        <v>42482.836805555555</v>
-      </c>
-      <c r="J59" s="4">
-        <v>42482.90625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>174774222</v>
-      </c>
-      <c r="B60">
-        <v>1461369000</v>
-      </c>
-      <c r="C60">
-        <v>1461375000</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I60" s="2">
-        <v>42482.993055555555</v>
-      </c>
-      <c r="J60" s="3">
-        <v>42483.0625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>174777744</v>
-      </c>
-      <c r="B61">
-        <v>1461383100</v>
-      </c>
-      <c r="C61">
-        <v>1461388800</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I61" s="2">
-        <v>42483.15625</v>
-      </c>
-      <c r="J61" s="2">
-        <v>42483.222222222219</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>174777868</v>
-      </c>
-      <c r="B62">
-        <v>1461391500</v>
-      </c>
-      <c r="C62">
-        <v>1461396900</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I62" s="2">
-        <v>42483.253472222219</v>
-      </c>
-      <c r="J62" s="3">
-        <v>42483.315972222219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>174777388</v>
-      </c>
-      <c r="B63">
-        <v>1461408600</v>
-      </c>
-      <c r="C63">
-        <v>1461413700</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I63" s="2">
-        <v>42483.451388888891</v>
-      </c>
-      <c r="J63" s="2">
-        <v>42483.510416666672</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>174777394</v>
-      </c>
-      <c r="B64">
-        <v>1461418200</v>
-      </c>
-      <c r="C64">
-        <v>1461423600</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I64" s="2">
-        <v>42483.5625</v>
-      </c>
-      <c r="J64" s="3">
-        <v>42483.625</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>174774238</v>
-      </c>
-      <c r="B65">
-        <v>1461323700</v>
-      </c>
-      <c r="C65">
-        <v>1461330960</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I65" s="2">
-        <v>42482.46875</v>
-      </c>
-      <c r="J65" s="4">
-        <v>42482.552777777775</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>174774386</v>
-      </c>
-      <c r="B66">
-        <v>1461334500</v>
-      </c>
-      <c r="C66">
-        <v>1461341940</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I66" s="2">
-        <v>42482.59375</v>
-      </c>
-      <c r="J66" s="4">
-        <v>42482.679861111115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>174774466</v>
-      </c>
-      <c r="B67">
-        <v>1461331800</v>
-      </c>
-      <c r="C67">
-        <v>1461338280</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I67" s="2">
-        <v>42482.5625</v>
-      </c>
-      <c r="J67" s="4">
-        <v>42482.637499999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>174774314</v>
-      </c>
-      <c r="B68">
-        <v>1461342000</v>
-      </c>
-      <c r="C68">
-        <v>1461348600</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I68" s="2">
-        <v>42482.680555555555</v>
-      </c>
-      <c r="J68" s="4">
-        <v>42482.756944444445</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>174774048</v>
-      </c>
-      <c r="B69">
-        <v>1461354300</v>
-      </c>
-      <c r="C69">
-        <v>1461359700</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I69" s="2">
-        <v>42482.822916666672</v>
-      </c>
-      <c r="J69" s="4">
-        <v>42482.885416666672</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>174778414</v>
-      </c>
-      <c r="B70">
-        <v>1461381300</v>
-      </c>
-      <c r="C70">
-        <v>1461386100</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I70" s="2">
-        <v>42483.135416666672</v>
-      </c>
-      <c r="J70" s="3">
-        <v>42483.190972222219</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>174778222</v>
-      </c>
-      <c r="B71">
-        <v>1461390300</v>
-      </c>
-      <c r="C71">
-        <v>1461396000</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I71" s="2">
-        <v>42483.239583333328</v>
-      </c>
-      <c r="J71" s="2">
-        <v>42483.305555555555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>174777722</v>
-      </c>
-      <c r="B72">
-        <v>1461399300</v>
-      </c>
-      <c r="C72">
-        <v>1461404400</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I72" s="2">
-        <v>42483.34375</v>
-      </c>
-      <c r="J72" s="3">
-        <v>42483.402777777781</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>174778136</v>
-      </c>
-      <c r="B73">
-        <v>1461411900</v>
-      </c>
-      <c r="C73">
-        <v>1461418500</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I73" s="2">
-        <v>42483.489583333328</v>
-      </c>
-      <c r="J73" s="2">
-        <v>42483.565972222219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>174778132</v>
-      </c>
-      <c r="B74">
-        <v>1461422400</v>
-      </c>
-      <c r="C74">
-        <v>1461428700</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I74" s="2">
-        <v>42483.611111111109</v>
-      </c>
-      <c r="J74" s="3">
-        <v>42483.684027777781</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>174774246</v>
-      </c>
-      <c r="B75">
-        <v>1461323160</v>
-      </c>
-      <c r="C75">
-        <v>1461329280</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I75" s="2">
-        <v>42482.462499999994</v>
-      </c>
-      <c r="J75" s="4">
-        <v>42482.533333333333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>174774376</v>
-      </c>
-      <c r="B76">
-        <v>1461335100</v>
-      </c>
-      <c r="C76">
-        <v>1461341160</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I76" s="2">
-        <v>42482.600694444445</v>
-      </c>
-      <c r="J76" s="4">
-        <v>42482.670833333337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>174773642</v>
-      </c>
-      <c r="B77">
-        <v>1461359400</v>
-      </c>
-      <c r="C77">
-        <v>1461368400</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I77" s="2">
-        <v>42482.881944444445</v>
-      </c>
-      <c r="J77" s="4">
-        <v>42482.986111111109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>174778242</v>
-      </c>
-      <c r="B78">
-        <v>1461373200</v>
-      </c>
-      <c r="C78">
-        <v>1461383100</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I78" s="2">
-        <v>42483.041666666672</v>
-      </c>
-      <c r="J78" s="3">
-        <v>42483.15625</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>174778008</v>
-      </c>
-      <c r="B79">
-        <v>1461394200</v>
-      </c>
-      <c r="C79">
-        <v>1461400200</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I79" s="2">
-        <v>42483.284722222219</v>
-      </c>
-      <c r="J79" s="2">
-        <v>42483.354166666672</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>174778312</v>
-      </c>
-      <c r="B80">
-        <v>1461403800</v>
-      </c>
-      <c r="C80">
-        <v>1461409500</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I80" s="2">
-        <v>42483.395833333328</v>
-      </c>
-      <c r="J80" s="3">
-        <v>42483.461805555555</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>174778328</v>
-      </c>
-      <c r="B81">
-        <v>1461419700</v>
-      </c>
-      <c r="C81">
-        <v>1461425400</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I81" s="2">
-        <v>42483.579861111109</v>
-      </c>
-      <c r="J81" s="2">
-        <v>42483.645833333328</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>174774116</v>
-      </c>
-      <c r="B82">
-        <v>1461329100</v>
-      </c>
-      <c r="C82">
-        <v>1461334440</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I82" s="2">
-        <v>42482.53125</v>
-      </c>
-      <c r="J82" s="4">
-        <v>42482.593055555553</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>174774132</v>
-      </c>
-      <c r="B83">
-        <v>1461341100</v>
-      </c>
-      <c r="C83">
-        <v>1461346800</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I83" s="2">
-        <v>42482.670138888891</v>
-      </c>
-      <c r="J83" s="4">
-        <v>42482.736111111109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>174774144</v>
-      </c>
-      <c r="B84">
-        <v>1461349800</v>
-      </c>
-      <c r="C84">
-        <v>1461355200</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I84" s="2">
-        <v>42482.770833333328</v>
-      </c>
-      <c r="J84" s="4">
-        <v>42482.833333333328</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>174777448</v>
-      </c>
-      <c r="B85">
-        <v>1461384000</v>
-      </c>
-      <c r="C85">
-        <v>1461391200</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I85" s="2">
-        <v>42483.166666666672</v>
-      </c>
-      <c r="J85" s="2">
-        <v>42483.25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>174777456</v>
-      </c>
-      <c r="B86">
-        <v>1461394800</v>
-      </c>
-      <c r="C86">
-        <v>1461402300</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I86" s="2">
-        <v>42483.291666666672</v>
-      </c>
-      <c r="J86" s="3">
-        <v>42483.378472222219</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>174777600</v>
-      </c>
-      <c r="B87">
-        <v>1461406500</v>
-      </c>
-      <c r="C87">
-        <v>1461412500</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I87" s="2">
-        <v>42483.427083333328</v>
-      </c>
-      <c r="J87" s="2">
-        <v>42483.496527777781</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>174778198</v>
-      </c>
-      <c r="B88">
-        <v>1461415500</v>
-      </c>
-      <c r="C88">
-        <v>1461421200</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I88" s="2">
-        <v>42483.53125</v>
-      </c>
-      <c r="J88" s="3">
-        <v>42483.597222222219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>174773428</v>
-      </c>
-      <c r="B89">
-        <v>1461324120</v>
-      </c>
-      <c r="C89">
-        <v>1461333600</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I89" s="2">
-        <v>42482.473611111112</v>
-      </c>
-      <c r="J89" s="4">
-        <v>42482.583333333328</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>174773733</v>
-      </c>
-      <c r="B90">
-        <v>1461335400</v>
-      </c>
-      <c r="C90">
-        <v>1461344280</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I90" s="2">
-        <v>42482.604166666672</v>
-      </c>
-      <c r="J90" s="4">
-        <v>42482.70694444445</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>174773921</v>
-      </c>
-      <c r="B91">
-        <v>1461326400</v>
-      </c>
-      <c r="C91">
-        <v>1461331260</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I91" s="2">
-        <v>42482.5</v>
-      </c>
-      <c r="J91" s="4">
-        <v>42482.556249999994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>174774356</v>
-      </c>
-      <c r="B92">
-        <v>1461335400</v>
-      </c>
-      <c r="C92">
-        <v>1461339420</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I92" s="2">
-        <v>42482.604166666672</v>
-      </c>
-      <c r="J92" s="4">
-        <v>42482.650694444441</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>174773536</v>
-      </c>
-      <c r="B93">
-        <v>1461361800</v>
-      </c>
-      <c r="C93">
-        <v>1461369900</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I93" s="2">
-        <v>42482.909722222219</v>
-      </c>
-      <c r="J93" s="2">
-        <v>42483.003472222219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>174777432</v>
-      </c>
-      <c r="B94">
-        <v>1461373500</v>
-      </c>
-      <c r="C94">
-        <v>1461381600</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I94" s="2">
-        <v>42483.045138888891</v>
-      </c>
-      <c r="J94" s="3">
-        <v>42483.138888888891</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>174777646</v>
-      </c>
-      <c r="B95">
-        <v>1461387600</v>
-      </c>
-      <c r="C95">
-        <v>1461393900</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I95" s="2">
-        <v>42483.208333333328</v>
-      </c>
-      <c r="J95" s="2">
-        <v>42483.28125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>174777644</v>
-      </c>
-      <c r="B96">
-        <v>1461399000</v>
-      </c>
-      <c r="C96">
-        <v>1461405000</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I96" s="2">
-        <v>42483.340277777781</v>
-      </c>
-      <c r="J96" s="3">
-        <v>42483.409722222219</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>174777992</v>
-      </c>
-      <c r="B97">
-        <v>1461412800</v>
-      </c>
-      <c r="C97">
-        <v>1461417600</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I97" s="2">
-        <v>42483.5</v>
-      </c>
-      <c r="J97" s="2">
-        <v>42483.555555555555</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>174778446</v>
-      </c>
-      <c r="B98">
-        <v>1461421800</v>
-      </c>
-      <c r="C98">
-        <v>1461425700</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I98" s="2">
-        <v>42483.604166666672</v>
-      </c>
-      <c r="J98" s="3">
-        <v>42483.649305555555</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="I1:J98">
-    <filterColumn colId="1">
-      <filters>
-        <dateGroupItem year="2016" month="4" day="22" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>